--- a/GroceryApplication/src/main/resources/Excel/GroceryApplicationData.xlsx
+++ b/GroceryApplication/src/main/resources/Excel/GroceryApplicationData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Workspace\GroceryApplication\src\main\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISWARYA\git\Grocery-Application\GroceryApplication\src\main\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAE83F-2A4F-47BD-987B-6C835FBC4126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E1239-E2D5-4667-831A-6EA9708BA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,12 +397,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -417,7 +417,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/GroceryApplication/src/main/resources/Excel/GroceryApplicationData.xlsx
+++ b/GroceryApplication/src/main/resources/Excel/GroceryApplicationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISWARYA\git\Grocery-Application\GroceryApplication\src\main\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E1239-E2D5-4667-831A-6EA9708BA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3341FC-FE6F-4243-BBE4-4C783B2FEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -49,13 +49,37 @@
   </si>
   <si>
     <t>Encrypted Password</t>
+  </si>
+  <si>
+    <t>Manage Contact Details</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Delivery Time</t>
+  </si>
+  <si>
+    <t>Delivery Charge Limit</t>
+  </si>
+  <si>
+    <t>testEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>abc,123Street</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +106,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,16 +138,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +504,59 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{3B8F1F23-185B-4E55-9EF7-18A632719D11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>